--- a/DATA_goal/Junction_Flooding_351.xlsx
+++ b/DATA_goal/Junction_Flooding_351.xlsx
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -967,103 +967,103 @@
         <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.64</v>
+        <v>146.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.7</v>
+        <v>26.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.71</v>
+        <v>27.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_351.xlsx
+++ b/DATA_goal/Junction_Flooding_351.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>45032.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>45032.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1.252</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>3.429</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.903</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.844</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>1.411</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>1.076</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>2.674</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>45032.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>13.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.322</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>27.605</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>23.597</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>10.411</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>33.233</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>15.481</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>6.899</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>10.822</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>11.627</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>11.766</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.173</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>10.078</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>14.004</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>8.214</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>147.599</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>27.766</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>9.667999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>19.284</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>9.988</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>16.471</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>8.147</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>7.344</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>8.506</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>12.313</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>29.315</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.332</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>11.501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>45032.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.48</v>
+        <v>19.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>15.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.98</v>
+        <v>42.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.62</v>
+        <v>35.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.07</v>
+        <v>15.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.27</v>
+        <v>58.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.4</v>
+        <v>23.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.89</v>
+        <v>10.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.53</v>
+        <v>16.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.65</v>
+        <v>17.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.38</v>
+        <v>18.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.38</v>
+        <v>4.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>15.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.48</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.44</v>
+        <v>227.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.96</v>
+        <v>42.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>14.44</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.43</v>
+        <v>29.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>15.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.75</v>
+        <v>28.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>12.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.66</v>
+        <v>11.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>12.95</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.1</v>
+        <v>18.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.14</v>
+        <v>52.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.99</v>
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_351.xlsx
+++ b/DATA_goal/Junction_Flooding_351.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -472,8 +472,8 @@
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45032.50694444445</v>
+        <v>44781.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45032.51388888889</v>
+        <v>44781.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.252</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.253</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.429</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.458</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.803</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.844</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.411</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.076</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.674</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45032.52083333334</v>
+        <v>44781.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.322</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.458</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.605</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.597</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.411</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.233</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.481</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.899</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.822</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.627</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.766</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.173</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.078</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.004</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.214</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.556</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.599</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.766</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.667999999999999</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.284</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.988</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.337</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.471</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.147</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.344</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.506</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.313</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.315</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.332</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45032.52777777778</v>
+        <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.78</v>
+        <v>12.485</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.23</v>
+        <v>9.224</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.634</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.35</v>
+        <v>25.984</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.64</v>
+        <v>23.617</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.73</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.16</v>
+        <v>30.275</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.68</v>
+        <v>15.404</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.64</v>
+        <v>7.886</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.24</v>
+        <v>11.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.42</v>
+        <v>11.653</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.03</v>
+        <v>11.378</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.384</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.35</v>
+        <v>9.616</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.7</v>
+        <v>14.483</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.6</v>
+        <v>9.141999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.43</v>
+        <v>2.026</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.667</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.58</v>
+        <v>146.443</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.78</v>
+        <v>26.957</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.44</v>
+        <v>8.882999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.37</v>
+        <v>18.431</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.29</v>
+        <v>9.541</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.02</v>
+        <v>1.437</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.41</v>
+        <v>16.748</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.46</v>
+        <v>8.122</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.09</v>
+        <v>7.655</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.95</v>
+        <v>8.787000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.39</v>
+        <v>13.104</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>1.621</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.55</v>
+        <v>27.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>6.057</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.63</v>
+        <v>11.072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.23</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.18</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.99</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_351.xlsx
+++ b/DATA_goal/Junction_Flooding_351.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -472,8 +472,8 @@
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>45032.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>45032.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>0.527</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1.252</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1.253</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>3.429</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>0.903</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>0.803</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.844</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>1.411</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>0.342</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>1.076</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>2.674</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>45032.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>13.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>10.322</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.458</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>27.605</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>23.597</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>10.411</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>33.233</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>15.481</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>6.899</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>10.822</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>11.627</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>11.766</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>3.173</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>10.078</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>14.004</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>8.214</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>147.599</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>27.766</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>9.667999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>19.284</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>9.988</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>16.471</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>8.147</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>7.344</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>8.506</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>12.313</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>29.315</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>5.332</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>11.501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>45032.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.485</v>
+        <v>19.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.224</v>
+        <v>15.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.634</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.984</v>
+        <v>42.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.617</v>
+        <v>35.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>15.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.275</v>
+        <v>58.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.404</v>
+        <v>23.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.886</v>
+        <v>10.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.53</v>
+        <v>16.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.653</v>
+        <v>17.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.378</v>
+        <v>18.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.384</v>
+        <v>4.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.616</v>
+        <v>15.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.483</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.141999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.026</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.667</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.443</v>
+        <v>227.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.957</v>
+        <v>42.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.882999999999999</v>
+        <v>14.44</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.431</v>
+        <v>29.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.541</v>
+        <v>15.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.437</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.748</v>
+        <v>28.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.122</v>
+        <v>12.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.655</v>
+        <v>11.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.787000000000001</v>
+        <v>12.95</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.104</v>
+        <v>18.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.621</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.14</v>
+        <v>52.55</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.057</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.16</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.99</v>
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>
